--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="64">
   <si>
     <t>Week 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +163,126 @@
   </si>
   <si>
     <t>配置后台开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定用户的注册和登陆等操作所对应的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为项目开发人员搭建开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为项目开发人员配置版本控制工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现项目后台数据交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为项目创建适宜的数据形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置自己的系统环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现项目前端界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建开发环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前端与用户信息数据库的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现微博导引界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现微博欢迎界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置版本控制工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置版本控制工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台服务器的部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前端与微博内容数据库的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现前端与好友及关注用户数据库的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现微博个人信息界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现微博好友关注界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现微博个人主页界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户注册和登陆功能进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写相关测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户好友分组和关注功能进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行实际测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户发表和删除微博功能进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现部分数据交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备项目第一周期汇报相关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -426,13 +549,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,24 +613,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -520,10 +670,19 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -808,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -826,210 +985,210 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="18"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="20"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="20"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="16" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1040,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1060,232 +1219,1082 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="29"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="29"/>
+      <c r="C14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="C18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="29"/>
-    </row>
-    <row r="22" spans="1:4" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="29"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="C23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="30"/>
+      <c r="C27" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
